--- a/parabolic/2025/07/15/parabolic.xlsx
+++ b/parabolic/2025/07/15/parabolic.xlsx
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D2" t="n">
-        <v>150300</v>
+        <v>240800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>935.5</v>
+        <v>934.5</v>
       </c>
       <c r="D3" t="n">
-        <v>221800</v>
+        <v>342800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D4" t="n">
-        <v>1954400</v>
+        <v>3117700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D5" t="n">
-        <v>1679000</v>
+        <v>3622600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D6" t="n">
-        <v>104000</v>
+        <v>136500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
-        <v>1594100</v>
+        <v>2293500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>

--- a/parabolic/2025/07/15/parabolic.xlsx
+++ b/parabolic/2025/07/15/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D2" t="n">
-        <v>240800</v>
+        <v>296100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>934.5</v>
+        <v>939.7000122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>342800</v>
+        <v>443700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D4" t="n">
-        <v>3117700</v>
+        <v>3618400</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D5" t="n">
-        <v>3622600</v>
+        <v>4801700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6962</t>
+          <t>6817</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>564</v>
+        <v>981</v>
       </c>
       <c r="D6" t="n">
-        <v>136500</v>
+        <v>227600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,16 +597,62 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>208</v>
+        <v>561</v>
       </c>
       <c r="D7" t="n">
-        <v>2293500</v>
+        <v>169600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7247</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>289</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3593800</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/07/15/parabolic.xlsx
+++ b/parabolic/2025/07/15/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D2" t="n">
-        <v>296100</v>
+        <v>452600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>939.7000122070312</v>
+        <v>937.5</v>
       </c>
       <c r="D3" t="n">
-        <v>443700</v>
+        <v>750500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" t="n">
-        <v>3618400</v>
+        <v>3901700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D5" t="n">
-        <v>4801700</v>
+        <v>5558200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="D6" t="n">
-        <v>227600</v>
+        <v>314800</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D7" t="n">
-        <v>169600</v>
+        <v>204200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7247</t>
+          <t>7245</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>289</v>
+        <v>671</v>
       </c>
       <c r="D8" t="n">
-        <v>115100</v>
+        <v>134900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>7247</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,39 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="D9" t="n">
-        <v>3593800</v>
+        <v>128300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-15</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>194</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4854800</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
